--- a/biology/Botanique/Château_de_Fontainebleau/Château_de_Fontainebleau.xlsx
+++ b/biology/Botanique/Château_de_Fontainebleau/Château_de_Fontainebleau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Fontainebleau</t>
+          <t>Château_de_Fontainebleau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Fontainebleau est un château royal de styles principalement Renaissance et classique, près du centre-ville de Fontainebleau (Seine-et-Marne), à une soixantaine de kilomètres au sud-est de Paris, en France. Les premières traces d'un château à Fontainebleau remontent au XIIe siècle. Les derniers travaux sont effectués au XIXe siècle.
-Haut lieu de l'histoire de France, le château de Fontainebleau est l'une des demeures des souverains français depuis François Ier, qui en fait sa demeure favorite, jusqu'à Napoléon III. Plusieurs rois laissent leur empreinte dans la construction et l'histoire du château, qui est ainsi un témoin des différentes phases de l'histoire de France depuis le Moyen Âge. Entouré d'un vaste parc et voisin de la forêt de Fontainebleau, le château se compose d'éléments de styles médiévaux, Renaissance, et classiques. Il témoigne de la rencontre entre l'art italien et la tradition française exprimée tant dans son architecture que dans ses décors intérieurs. Cette spécificité s'explique par la volonté de François Ier de créer à Fontainebleau une « nouvelle Rome »[1],[N 1] dans laquelle les artistes italiens viennent exprimer leur talent et influencer l'art français. C'est ainsi que naît l'École de Fontainebleau, qui représente la période la plus riche de l'art renaissant en France, et inspire la peinture française jusqu'au milieu du XVIIe siècle, voire au-delà. Napoléon Ier surnomme ainsi le château la « maison des siècles »[2], évoquant par là les souvenirs historiques dont les lieux sont le témoignage.
-Le château fait l’objet d'un classement au titre des monuments historiques par la liste de 1862, classement complété par plusieurs arrêtés pris en 1913, 1930, 2008 et 2009[3]. Par ailleurs, depuis 1981, le château fait partie avec son parc du patrimoine mondial de l'UNESCO. Riche d'un cadre architectural de premier ordre, le château de Fontainebleau possède également une des plus importantes collections de mobilier ancien de France, et conserve une exceptionnelle collection de peintures, de sculptures, et d'objets d'art, allant du VIe au XIXe siècle.
+Haut lieu de l'histoire de France, le château de Fontainebleau est l'une des demeures des souverains français depuis François Ier, qui en fait sa demeure favorite, jusqu'à Napoléon III. Plusieurs rois laissent leur empreinte dans la construction et l'histoire du château, qui est ainsi un témoin des différentes phases de l'histoire de France depuis le Moyen Âge. Entouré d'un vaste parc et voisin de la forêt de Fontainebleau, le château se compose d'éléments de styles médiévaux, Renaissance, et classiques. Il témoigne de la rencontre entre l'art italien et la tradition française exprimée tant dans son architecture que dans ses décors intérieurs. Cette spécificité s'explique par la volonté de François Ier de créer à Fontainebleau une « nouvelle Rome »,[N 1] dans laquelle les artistes italiens viennent exprimer leur talent et influencer l'art français. C'est ainsi que naît l'École de Fontainebleau, qui représente la période la plus riche de l'art renaissant en France, et inspire la peinture française jusqu'au milieu du XVIIe siècle, voire au-delà. Napoléon Ier surnomme ainsi le château la « maison des siècles », évoquant par là les souvenirs historiques dont les lieux sont le témoignage.
+Le château fait l’objet d'un classement au titre des monuments historiques par la liste de 1862, classement complété par plusieurs arrêtés pris en 1913, 1930, 2008 et 2009. Par ailleurs, depuis 1981, le château fait partie avec son parc du patrimoine mondial de l'UNESCO. Riche d'un cadre architectural de premier ordre, le château de Fontainebleau possède également une des plus importantes collections de mobilier ancien de France, et conserve une exceptionnelle collection de peintures, de sculptures, et d'objets d'art, allant du VIe au XIXe siècle.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Fontainebleau</t>
+          <t>Château_de_Fontainebleau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,52 +528,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moyen Âge
-Un château fort est mentionné à cet endroit pour la première fois en 1137 dans une charte du roi des Francs Louis VII le Jeune. La date exacte de la fondation du château reste inconnue, mais le premier édifice a probablement été construit sous le règne du père de Louis VII, Louis VI le Gros, voire sous celui de son grand-père, Philippe Ier, lorsqu'il réunit le Gâtinais au domaine royal français en 1068[4].
-En 1169, une autre charte de Louis VII établit et dote un chapelain pour desservir la chapelle[5],[6] ; celle-ci sera consacrée à la Vierge et à saint Saturnin[7],[6] par Thomas Becket, archevêque de Cantorbéry, alors réfugié à Sens. À la Noël 1191, Philippe II Auguste fête à Fontainebleau le retour de la troisième croisade[7].
-Le château est agrandi par Louis IX, qui l'appelle « ses déserts »[8] où il aime à prendre le « déduit[N 2] de chasse »[9] au XIIIe siècle ; il y installe des religieux de l'ordre des Trinitaires en 1259 dans l’enceinte même du château pour desservir l'hôpital-couvent[10] qu'il fonde[11]. De cette disposition originelle subsistent les fondations de la chapelle des Trinitaires et de leurs bâtiments conventuels, alors situés à proximité de l’actuelle chapelle de la Trinité[11].
-Philippe IV le Bel est le premier roi de France à naître au château en 1268 et fait aménager des appartements en 1286. Il est également le premier roi à y mourir des suites d'une chute de cheval en 1314, après une longue agonie[12]. En 1313, Jeanne de Bourgogne, petite fille de saint Louis par sa mère et propriétaire du domaine de Fontainebleau, épouse Philippe de Valois, futur roi de France Philippe VI de Valois, qui y fait des séjours fréquents. En 1325, le château reçoit la visite d'Isabelle de France devenue reine d'Angleterre[N 3]. En janvier 1332, a lieu à Fontainebleau la signature du contrat de mariage entre Jean II le Bon et Bonne de Luxembourg[13]. Le roi y vit dès 1350. Charles V le Sage y installe une bibliothèque et Isabeau de Bavière y entreprend des travaux, après avoir acquis les domaines de la forêt de Bière[N 4], de Fontainebleau, de Moret et la châtellenie de Melun en 1404. Charles VI y séjourne à partir de 1388. Le château est cependant abandonné en raison des affrontements de la guerre de Cent Ans, lorsque la cour s'exile au bord de la Loire et à Bourges. Charles VII y revient après la libération de l'Île-de-France et de Paris en 1436, privilégiant le lieu pour sa salubrité[14].
-Renaissance
-François Ier décide de faire édifier un logis de style Renaissance à l'emplacement du château féodal, permettant ainsi de moderniser un pied-à-terre proche de la vallée de Bière[N 4], le roi prétextant lui-même choisir cet endroit pour la chasse des bêtes « rousses et noires ». Il fait raser la précédente construction, à l'exception du donjon et d'une partie de la courtine nord, et fait appel à des artistes italiens pour assurer la construction et la décoration de son palais. C'est ainsi que sont édifiés un bâtiment dessinant la cour Ovale et un autre situé sur la basse cour ouest, tous deux reliés par une galerie. François Ier vient chasser à Fontainebleau, accompagné de sa cour et de sa favorite, la duchesse d'Étampes, délaissant ainsi plus ou moins le château de Blois, et annonçant le retour progressif de la cour  dans les environs de Paris.
-Plusieurs conducteurs de travaux se succèdent durant son règne : Florimond de Champeverne, secrétaire et valet de chambre du roi, est nommé en 1528 conducteur[N 5] jusqu'à sa mort en 1531. Pierre Paule dit l'Italien, présent dès 1528, ancien concierge du château de Moulins, valet de chambre de Louise de Savoie, dirige ensuite les travaux jusqu'à sa mort en 1535. Il est remplacé par acte du 21 avril 1543 par un conducteur particulier, Salomon des Herbaines, tapissier du roi, garde des meubles et tapisseries, qui présente l'avantage de résider sur place et travaille en collaboration avec Pierre des Hôtels, notaire, secrétaire et valet de chambre du roi ; il décède en 1558.
-Les noms des architectes du château sont, quant à eux, plus hypothétiques : Sebastiano Serlio, pour sa part, se voyait offrir le 27 décembre 1541 l'assurance de 400 livres par an pour « son état de peintre et d'architecteur au fait de ses édifices et bastiments au dit lieu de Fontainebleau ». Il apparaît néanmoins que son apport au sein de l'édifice reste limité. Gilles Jamin, architecte et maître d'œuvre du château de Fontainebleau, ainsi que son fils Gracieux Jamin et François Jamin son petit-fils. D'autres noms ont été avancés pour identifier l'architecte qui officia sous le règne de François Ier. Si Gilles Le Breton a effectivement travaillé sur le projet du château, il n'en est pas le créateur. Le Rosso ou Girolamo della Robbia qui a proposé des décors pour la porte Dorée, peuvent eux aussi figurer parmi les architectes potentiels. Les constructions successives du règne de François Ier, notamment pour la cour du Cheval blanc, sont mieux connues depuis des recherches récentes[15] : les trois ailes, nord, ouest et sud, de la susdite cour furent construites en 1540-1542, tandis que l'aile est datée de 1538-1539 pour sa moitié sud (pavillon des Poêles) et postérieure à 1545 pour sa moitié nord (chapelle de la Trinité et pavillon des Armes). L'aile sud fut également surélevée d'un étage, vers 1545-1546, abritant la célèbre galerie d'Ulysse.
-Le roi souhaite faire de Fontainebleau un foyer de l'art de la Renaissance : il collectionne les objets d'art, commande des œuvres sur la mythologie, fait venir d'Italie des antiques. Il reçoit des tableaux de la part du pape, collectionne des œuvres de maîtres italiens (La Joconde et La Vierge aux rochers de Léonard de Vinci, la Sainte-Famille, Saint-Michel, et la Belle Jardinière de Raphaël) et fait venir des moules de statues romaines (Laocoon, Apollon du Belvédère…) afin de couler des bronzes[N 6]. Pour la décoration du château, il commet Rosso Fiorentino qui dessine le pavillon de Pomone, le pavillon des Poesles, la galerie Basse (tous détruits) et surtout la galerie François Ier (1534-1540). Giorgio Vasari désigne Fontainebleau comme la « Nouvelle Rome »[1] et son école est renommée dans toute l'Europe de l’Ouest. François Ier constitue dans le château une importante bibliothèque, ancêtre de la bibliothèque nationale. Le château de Fontainebleau reçoit, entre le 4 et le 27 décembre 1536, la visite de Jacques V d'Écosse, futur époux de Madeleine de France. C'est en 1539 que François Ier reçoit à Fontainebleau Charles Quint et lui fait visiter son palais, entre le 24 et le 30 décembre[16]. Ronsard se fera l'écho du faste déployé au château par l'écriture de quelques vers :
-« Quand verrons-nous par tout FontainebleauDe chambre en chambre aller les mascarades… »
-Le fils de François Ier, le roi de France Henri II, complète le château avec une salle de bal et une chapelle, reliées à l'édifice par la célèbre galerie François Ier, qui fait face à l'étang des Carpes. Il nomme Philibert Delorme pour vérifier et visiter le château le 3 avril 1548, date à laquelle la suite des travaux lui est confiée. C'est ainsi qu'une grande partie du château actuel voit le jour, dont la salle de bal. C'est à Fontainebleau que naissent la plupart des enfants de Henri II et de Catherine de Médicis, les futurs rois François II (19 janvier 1544) et Henri III (19 septembre 1551) ainsi qu'Élisabeth de France (2 avril 1545), Claude de France (12 novembre 1547), Louis de France (3 février 1549), François d'Alençon (18 mars 1555) et les jumelles Victoire et Jeanne (24 juin 1556)[N 7].
-Deux jours après la mort d'Henri II en 1559, Catherine de Médicis remercie Philibert Delorme, protégé de Diane de Poitiers, et confie les travaux à Francesco Primaticcio, dit Le Primatice qui devient surintendant des maisons royales le 12 juillet 1559. Le 17 juillet, le contrôleur général des bâtiments de France, Jean Bullant, est remplacé par François Sannat. C'est à cette époque que Nicolò dell'Abbate décore le château. À la mort du Primatice, le 14 septembre 1570, celui-ci est remplacé par Tristan de Rostaing. Jean Bullant finit par revenir à Fontainebleau et est nommé auprès de Rostaing le 3 août 1571 comme architecte conducteur des travaux. À la mort de Jean Bullant en octobre 1578, le chantier est confié par Henri III à Baptiste Androuet du Cerceau.
-Pendant le règne des trois fils d'Henri II (François II, Charles IX et Henri III), le château de Fontainebleau est moins habité, les monarques lui préférant le Louvre, ou encore les demeures du Val de Loire comme Amboise ou Blois. Le château est néanmoins le théâtre d'une assemblée de notables réunis du 21 au 31 août 1560 pour résoudre les questions religieuses qui troublent le royaume et aboutissant à la convocation des États Généraux. Le 31 janvier 1564, Charles IX et Catherine de Médicis reçoivent les ambassadeurs du pape, de l'empereur et du roi d'Espagne en vue d'une négociation afin que la France revienne sur l'édit de pacification d'Amboise[17].
-Sous le règne des Bourbons
-Plus tard, Henri IV agrandit la demeure de plusieurs ailes et de la porte du Baptistère : il dépense entre 1593 et 1609 près de deux millions et demi de livres pour les travaux. Il fait aménager la cour des Offices et redresser la cour Ovale alors assez irrégulière. Désormais, le palais peut accueillir près de mille personnes. Le roi vient jouer à la paume dans une salle spécialement aménagée. À cette époque, une nouvelle génération d'artistes, français et flamands, décore l'intérieur du château (Martin Fréminet, Jean de Hoey, Ambroise Dubois…). C'est la seconde école de Fontainebleau, rassemblant des artistes issus plutôt de milieux parisiens. Le château accueille entre le 14 et le 21 décembre 1599 la visite de Charles-Emmanuel de Savoie.
-C'est à Fontainebleau que se marient Concino Concini et Léonora Dori, dite Galigaï le 27 juin 1601 dans la chapelle du roi, et que naît le futur Louis XIII, le 27 septembre 1601, qui est baptisé le 14 septembre 1606 en même temps que ses deux sœurs, Élisabeth et Chrétienne. Le 14 juin 1602, a lieu au château l'arrestation du maréchal de Biron et du comte d'Auvergne[18], convaincus de trahison. Le 22 novembre de la même année, naît au château Élisabeth de France, fille d'Henri IV puis le 24 avril 1608, son fils Gaston d'Orléans, événement fêté par une série de spectacles donnés en l'honneur de la reine Marie de Médicis. On y joue notamment une partie de la tragédie Bradamante de Robert Garnier[19]. La même année, l'ambassadeur d'Espagne don Pedro de Tolède est reçu à Fontainebleau[20]. Le 7 juillet 1609, le château est le théâtre du mariage de César de Vendôme[N 9] et d'Henriette de Lorraine.
-Louis XIII, qui hérite en 1610 un château encore en chantier, fait achever les travaux sans apporter de modification majeure. C'est là que le cardinal Barberini, neveu du pape Urbain VIII, est reçu par Louis XIII au château pendant l'été 1625 ; que le maréchal d'Ornano est arrêté le 4 mai 1626[21]. Le 30 mai 1631, Louis XIII et le prince électeur de Bavière Maximilien Ier signent à Fontainebleau une alliance secrète. Le 14 et le 15 mai 1633 a lieu la promotion, au château, de 49 chevaliers de l'ordre du Saint-Esprit. Le 25 septembre 1645 est signé à Fontainebleau le contrat de mariage entre Ladislas IV de Pologne et Marie-Louise de Gonzague-Nevers. Un an plus tard, du 19 au 23 août 1646 a lieu la réception d'Henriette Marie de France, reine d'Angleterre, et de son fils, le futur Charles II d'Angleterre. La reine Christine de Suède y demeure une première fois du 4 au 6 septembre 1656 ; durant son second séjour, du 10 octobre 1657 au 23 février 1658, elle fait assassiner à l'épée et au poignard son écuyer et favori Giovanni Monaldeschi le 10 novembre 1657 pour trahison, ce qui provoque un scandale d'autant plus grand que, portant une cotte de mailles sous son habit, Monaldeschi voit son martyre prolongé[22],[N 10].
-Louis XIV, bien que préférant les demeures situées à l'ouest de Paris et accordant toutes ses attentions au château de Versailles, aime venir à Fontainebleau. Durant son règne, Fontainebleau est considéré comme une demeure du passé, mais reste un symbole de l'héritage des rois de France, et son entretien s'inscrit donc dans la continuité de la monarchie[23]. C'est pourquoi les modifications architecturales restent limitées, mais on observe une profonde rénovation des jardins : entre 1645 et 1646, Anne d'Autriche fait redessiner le jardin de Diane par André Le Nôtre, lequel, avec Louis Le Vau, modifie le Parterre en installant notamment au centre une fontaine de rocaille. Elle fait également décorer ses appartements avec quatorze paysages historiés peints par Henri Mauperché. Il est possible qu'une partie de ces tableaux se trouve aujourd'hui à la Galerie Nationale de Sofia, en particulier Le Christ à la Samaritaine et le Christ et les pèlerins d'Emmaüs[24].
-C'est en 1661-1662 que Le Nôtre crée le bassin des Cascades. Le roi fait néanmoins construire un théâtre, vient au château presque chaque année : c'est à Fontainebleau que naît le Grand Dauphin le 1er novembre 1661[25], que débute le 25 juin 1664 le procès du surintendant Nicolas Fouquet à la chancellerie, qu'a lieu l'audience du cardinal Flavio Chigi, légat du pape Alexandre VII le 29 juillet 1664, qu'est célébré, le 31 août 1679, le mariage de la nièce du roi Marie Louise d'Orléans et de Charles II d'Espagne[26], qu'est signé le traité entre la France et la Suède puis celui entre le Danemark et le duc de Holstein-Gottorp le 2 septembre 1679, et en 1698. Louis XIV y signe le 18 octobre 1685 l'édit révoquant celui de Nantes et interdisant ainsi le protestantisme en France[27].
-Le compositeur Jean-Baptiste Lully suit à plusieurs reprises la Cour à Fontainebleau, la première fois en 1661 pour monter le Ballet des Saisons, une autre en 1670 où il donne une représentation dans l'aile de la Cheminée, une troisième le 9 septembre 1677 pour diriger un Te Deum dans la chapelle de la Trinité pour le baptême de son fils aîné, Louis, et une dernière le 20 octobre 1685[28]. En 1679-1680, François d'Orbay fait construire des hôtels pour les secrétaires d'État (bâtiments de la cour des Mathurins et au coin de la grotte des Pins). En 1701, Hardouin-Mansart double l'aile de la galerie des Cerfs, le long du mur est, par un bâtiment en moellons en enduit et briques.
-Le 9 novembre 1685, meurt à Fontainebleau Louis Armand de Bourbon, prince de Conti. Le Grand Condé s'éteint à son tour dans le château le 11 décembre 1686[27]. Du 11 au 18 octobre 1690 a lieu au château le premier séjour de l'ancien roi d'Angleterre Jacques II et de sa femme Marie de Modène. Ceux-ci reviendront chaque année au château jusqu'en 1700. Le 5 novembre 1696, le château est le théâtre de la réception de Marie-Adélaïde de Savoie, future duchesse de Bourgogne et mère de Louis XV. Saint-Simon décrira notamment la scène : « Toute la cour était sur le Fer-à-Cheval, qui faisait un très beau spectacle avec la foule qui était en bas. Le roi menait la princesse qui semblait sortir de sa poche et la conduisit fort lentement à la tribune [de la Chapelle] un moment, puis au grand appartement de la reine mère qui lui était destiné, […] »[29].
-Le 13 octobre 1698, le château de Fontainebleau reçoit le mariage par procuration de Léopold, duc de Lorraine, et d'Élisabeth Charlotte d'Orléans. Saint-Simon affirme que la décision d'accepter pour le duc d'Anjou la couronne d'Espagne a été prise lors d'un conseil tenu le 10 novembre 1700 dans les appartements de Mme de Maintenon[30]. Vers la fin du règne de Louis XIV, Fontainebleau reçoit la visite entre le 21 et le 24 août 1712 de Henry St John, 1er vicomte Bolingbroke, mandaté par Anne Stuart pour négocier la paix après la guerre de Succession d'Espagne, et la visite le 26 septembre 1714 de Frédéric-Auguste, prince-électeur de Saxe et roi de Pologne, sous le nom de comte de Lusace. La Régence est marquée par la visite à Fontainebleau, du tsar de Russie Pierre le Grand le 30 et 31 mai 1717[31].
-Louis XV, qui s'y marie le 5 septembre 1725, fait aménager une salle de spectacles, qui brûlera en 1856, et reconstruire une galerie ainsi que le pavillon des Poêles par Ange-Jacques Gabriel, et Louis XVI ne séjournent pas souvent au château, mais restent plus ou moins fidèles à la tradition d'un séjour annuel, faisant de Fontainebleau une sorte de « palais d'automne ».
-Le 27 octobre 1743, Fontainebleau est le théâtre de la signature d'un traité d'alliance secret entre la France et l'Espagne. Le 18 octobre 1752 a lieu au château la première représentation du Devin du Village de Jean-Jacques Rousseau. Le 3 novembre 1762 y est signé le traité de Fontainebleau, traité secret entre la France et l'Espagne au sujet des possessions de la Louisiane. Le dauphin Louis, fils de Louis XV, meurt de la tuberculose au château le 20 décembre 1765[32]. Le roi Christian VII de Danemark y séjourne du 24 au 27 octobre 1768, puis du 2 au 5 novembre, et y voit jouer Tancrède de Voltaire. Le 12 mai 1771, a lieu à Fontainebleau la réception de Marie-Joséphine de Savoie, future comtesse de Provence, puis celle, le 14 novembre 1773, de Marie-Thérèse de Savoie, future comtesse d'Artois[N 11].
-Le règne de Louis XVI est marqué par la ratification à Fontainebleau de deux traités : d'une part le traité de Fontainebleau signé en 1785 entre l'Autriche et les Pays-Bas à la suite de (la guerre de la Marmite), et d'autre part un traité de commerce entre la France et l'Angleterre, le 10 novembre 1786.
-Époque contemporaine
-Pendant la Révolution française, le palais est vidé de son mobilier. En janvier 1789, le feu prend dans l'Orangerie, l'incendie s'étant propagé et ayant endommagé la chapelle, réduit en cendres l'appartement du Dauphin (dans l'aile précédemment connue sous le nom de Galerie de François Ier)[33]. Il est occupé par l'École Centrale de Seine-et-Marne, puis devient, du 28 janvier 1803 au 30 juin 1808, la caserne de l'École spéciale militaire qui sera transférée à Saint-Cyr-l'École et enfin une prison.
-Napoléon Ier fait revivre Fontainebleau à partir de 1804, il le fait meubler, y tient sa cour pour laquelle il fait aménager 40 appartements de maître. Deux soirs par semaine, il fait donner des spectacles d'opéra et de théâtre. Fontainebleau est aussi un lieu de décision politique, comme le montrent la salle du trône et la bibliothèque de travail de l'empereur, qui y fait transférer secrètement le pape Pie VII (prisonnier de l'Empereur à Savone), le 20 juin 1812[N 12], qui y resta enfermé pendant dix-neuf mois et y signera sous pression le concordat de Fontainebleau, le 25 janvier 1813[34]. Le pape quittera Fontainebleau le 23 janvier 1814.
-Le 23 mai 1808, le château accueille la visite de Charles IV d'Espagne et de la reine Marie-Louise. L'année 1807 est marquée par trois événements : le traité fixant les frontières entre l'Autriche et le royaume d'Italie le 10 octobre, un traité d'alliance franco-danois le 15 octobre, et un traité secret entre la France et l'Espagne concernant le Portugal le 27 octobre.
-Implanté en 1807 entre l'étang des Carpes et la forêt, le manège de Sénarmont est le principal édifice élevé à la demande de Napoléon 1er dans l'enceinte du palais de Fontainebleau. Il est construit selon des dispositions architecturales ambitieuses, avec une charpente à la Philibert Delorme qui a permis la couverture d'un volume de dimensions exceptionnelles pour l'époque, rappelant le 2e projet de 1785 d'Étienne-Louis Boullée pour la Bibliothèque du Roi[35].
-Le futur Napoléon III est baptisé au château le 4 novembre 1810, avec 24 autres enfants de dignitaires et généraux.
-Napoléon passe les derniers jours de son règne dans le château avant d’abdiquer le 4 avril 1814 sous la pression de ses maréchaux Ney, Berthier, et Lefebvre[N 13] (le traité de Fontainebleau, qui formalise son abdication sans condition, est signé à Paris le 11 avril 1814[36]). Le 20 avril, après avoir vainement tenté de se suicider[37], il prononce un discours resté fameux à sa garde dans la cour dite depuis « cour des Adieux », scène illustrée par le tableau Les Adieux de Fontainebleau peint par Horace Vernet. Il dit notamment à sa Vieille Garde : « Continuez à servir la France, son bonheur était mon unique pensée ! » et les remercie : « depuis vingt ans […] vous vous êtes toujours conduits avec bravoure et fidélité ! » Napoléon se souviendra d'ailleurs du château de Fontainebleau lors de son séjour à Sainte-Hélène : « Voilà, disait-il, la vraie demeure des rois, la maison des siècles ; peut-être n’était-ce pas rigoureusement un palais d’architecte, mais bien assurément un lieu d’habitation bien calculé et parfaitement convenable. C’était ce qu’il y avait sans doute de plus commode, de plus heureusement situé en Europe […] »[38]. Pendant les Cent-Jours, Napoléon y fera un arrêt le 20 mars 1815[N 14].
-À la suite de Napoléon, les derniers monarques français y feront plusieurs séjours : le 15 juin 1816, Marie-Caroline de Bourbon-Sicile, duchesse de Berry, est reçue au château. Louis XVIII et Charles X y ont dormi.
-Sous la monarchie de Juillet, Louis-Philippe entreprend les premiers travaux de restauration (dirigés par Jean Alaux, Picot, et Abel de Pujol[39]) et fait redécorer et remeubler l'intérieur, avant que le château ne serve de cadre au mariage de Ferdinand-Philippe d'Orléans avec Hélène de Mecklembourg-Schwerin le 30 mai 1837. Du 20 au 21 novembre 1840, le château est visité par l'ancienne reine d'Espagne Marie-Christine[39]. Le 16 avril 1846, un garde de la forêt, Pierre Lecomte, tente d'assassiner Louis-Philippe dans le parc du château. Le palais reçoit la visite du bey de Tunis, Ahmed Ier Bey, les 15 et 16 décembre 1846.
-C'est en 1848 qu'Abel Blouet devient architecte du château et entreprend de nouvelles restaurations (galerie François Ier, ailes de la cour du Cheval blanc…). À sa mort en 1853, il est remplacé par Hector Lefuel puis Alexis Paccard en 1855. Le château fait l’objet d'un classement au titre des monuments historiques par la liste de 1862[3]. En 1867, Prosper Desbuisson devient architecte du palais et poursuit les restaurations engagées par ses prédécesseurs.
-Sous le Second Empire, Fontainebleau fait partie, avec Saint-Cloud, Compiègne et Biarritz, des lieux de villégiature de la cour[40]. L'impératrice Eugénie, épouse de Napoléon III, passe ses soirées dans le petit théâtre construit par son mari. Elle s'attache au salon chinois, agrémenté par des objets provenant du sac du palais d'Été[41] et par les cadeaux des ambassadeurs du Siam, reçus au château le 27 juin 1861. Ils avaient été précédés par le roi de Prusse, futur empereur allemand, Guillaume Ier (15 et 16 décembre 1856) et par Maximilien II de Bavière (17 au 24 mai 1857). Lors de la guerre de 1870, le château est investi par les Prussiens (17 septembre 1870) ; Frédéric Charles de Prusse et son état-major l'occupent du 6 au 18 mars 1871 ; il est finalement évacué cinq jours plus tard.
-En novembre 1871, les dépendances du château sont confiées à l'École d'application de l'artillerie et du génie, après que celle-ci a quitté Metz. Les débuts de la Troisième République sont marqués par la réception d'invités de marque par les présidents de la République : Alexandre Ier de Serbie le 17 août 1891 et Georges Ier de Grèce le 9 septembre 1892 par Sadi Carnot, Léopold II de Belgique, roi des Belges, le 21 septembre 1895 par Félix Faure[8], et Alphonse XIII d'Espagne le 8 mai 1913 par Raymond Poincaré. Le château devient la demeure occasionnelle de quelques présidents de la Troisième République.
-Les protections se poursuivent : les façades et combles des extérieurs des bâtiments qui encadrent la cour Henri IV et la cour des Princes, ainsi que les façades et combles du Pavillon Sully, font l’objet d’un classement au titre des monuments historiques depuis le 20 août 1913[3].
-Plusieurs événements importants auront lieu à Fontainebleau au cours du XXe siècle. Après une visite le 10 juillet 1914 de l'ancienne impératrice Eugénie, le 26 juin 1921 a lieu à Fontainebleau l'inauguration du Conservatoire américain avant celle de l'École des beaux-arts américains le 25 juin 1923. Dès 1927 (date à laquelle le château est consacré musée national) et ce jusque dans les années 1930, les parties hautes de l'aile de la Belle Cheminée (incendiée en 1856) sont reconstruites grâce aux fonds Rockefeller. Le manège de Sénarmont est classé au titre des monuments historiques par arrêté du 10 octobre 1930[3].
-Pendant la Seconde Guerre mondiale, l'armée allemande commandée par le général Richard Ruoff investit Fontainebleau le 16 juin 1940 et l'occupe jusqu'au 10 novembre, puis du 15 mai à fin octobre 1941. Après guerre, le château reçoit du 6 au 10 septembre 1946 une conférence franco-vietnamienne sous la présidence de Max André et Phạm Văn Đồng et le 5 octobre 1948 est créée au château l'Union internationale pour la protection de la nature.
-En janvier 1949, une partie du château (notamment la cour des Offices) est investie par le commandement en chef des forces alliées Centre-Europe (OTAN) et y restera jusqu'en juillet 1966. Une restauration générale du château est permise par la loi-programme des années 1964-1968 dont André Malraux est l'initiateur. Le domaine de Fontainebleau est classé au patrimoine mondial de l'UNESCO en 1981. Les 25 et 26 juin 1984 se réunit à Fontainebleau le Conseil des chefs d'État et de gouvernement de la Communauté économique européenne, présidé par François Mitterrand.
-C'est en 1986 qu'est inauguré dans l'aile Louis XV, le musée Napoléon Ier. Les bâtiments de la cour des Offices (en restauration) ont été récemment affectés au Centre européen de musique de chambre. Le ministère de la Culture et de la Communication a par ailleurs acquis en 2006 les anciennes écuries royales et y entreprend des restaurations.
-Le domaine national de Fontainebleau dans sa totalité, incluant les parties bâties et non bâties non encore protégées, fait l’objet d'un classement au titre des monuments historiques par arrêté du 10 octobre 2008[3],[N 15].
-En 2011, des visites thématiques et des expositions se tiennent au château dans le cadre du festival de l'histoire de l'art[42].
-À l'occasion du bicentenaire de la mort de Napoléon Ier en 2021, une grande exposition, intitulée Un palais pour l'Empereur. Napoléon Ier à Fontainebleau, est organisée au château. À cette occasion, plus de 200 œuvres issues des collections bellifontaines et de musées français ou étrangers ont été prêtées au château[43].
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un château fort est mentionné à cet endroit pour la première fois en 1137 dans une charte du roi des Francs Louis VII le Jeune. La date exacte de la fondation du château reste inconnue, mais le premier édifice a probablement été construit sous le règne du père de Louis VII, Louis VI le Gros, voire sous celui de son grand-père, Philippe Ier, lorsqu'il réunit le Gâtinais au domaine royal français en 1068.
+En 1169, une autre charte de Louis VII établit et dote un chapelain pour desservir la chapelle, ; celle-ci sera consacrée à la Vierge et à saint Saturnin, par Thomas Becket, archevêque de Cantorbéry, alors réfugié à Sens. À la Noël 1191, Philippe II Auguste fête à Fontainebleau le retour de la troisième croisade.
+Le château est agrandi par Louis IX, qui l'appelle « ses déserts » où il aime à prendre le « déduit[N 2] de chasse » au XIIIe siècle ; il y installe des religieux de l'ordre des Trinitaires en 1259 dans l’enceinte même du château pour desservir l'hôpital-couvent qu'il fonde. De cette disposition originelle subsistent les fondations de la chapelle des Trinitaires et de leurs bâtiments conventuels, alors situés à proximité de l’actuelle chapelle de la Trinité.
+Philippe IV le Bel est le premier roi de France à naître au château en 1268 et fait aménager des appartements en 1286. Il est également le premier roi à y mourir des suites d'une chute de cheval en 1314, après une longue agonie. En 1313, Jeanne de Bourgogne, petite fille de saint Louis par sa mère et propriétaire du domaine de Fontainebleau, épouse Philippe de Valois, futur roi de France Philippe VI de Valois, qui y fait des séjours fréquents. En 1325, le château reçoit la visite d'Isabelle de France devenue reine d'Angleterre[N 3]. En janvier 1332, a lieu à Fontainebleau la signature du contrat de mariage entre Jean II le Bon et Bonne de Luxembourg. Le roi y vit dès 1350. Charles V le Sage y installe une bibliothèque et Isabeau de Bavière y entreprend des travaux, après avoir acquis les domaines de la forêt de Bière[N 4], de Fontainebleau, de Moret et la châtellenie de Melun en 1404. Charles VI y séjourne à partir de 1388. Le château est cependant abandonné en raison des affrontements de la guerre de Cent Ans, lorsque la cour s'exile au bord de la Loire et à Bourges. Charles VII y revient après la libération de l'Île-de-France et de Paris en 1436, privilégiant le lieu pour sa salubrité.
 </t>
         </is>
       </c>
@@ -572,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Fontainebleau</t>
+          <t>Château_de_Fontainebleau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,33 +563,222 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Renaissance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Ier décide de faire édifier un logis de style Renaissance à l'emplacement du château féodal, permettant ainsi de moderniser un pied-à-terre proche de la vallée de Bière[N 4], le roi prétextant lui-même choisir cet endroit pour la chasse des bêtes « rousses et noires ». Il fait raser la précédente construction, à l'exception du donjon et d'une partie de la courtine nord, et fait appel à des artistes italiens pour assurer la construction et la décoration de son palais. C'est ainsi que sont édifiés un bâtiment dessinant la cour Ovale et un autre situé sur la basse cour ouest, tous deux reliés par une galerie. François Ier vient chasser à Fontainebleau, accompagné de sa cour et de sa favorite, la duchesse d'Étampes, délaissant ainsi plus ou moins le château de Blois, et annonçant le retour progressif de la cour  dans les environs de Paris.
+Plusieurs conducteurs de travaux se succèdent durant son règne : Florimond de Champeverne, secrétaire et valet de chambre du roi, est nommé en 1528 conducteur[N 5] jusqu'à sa mort en 1531. Pierre Paule dit l'Italien, présent dès 1528, ancien concierge du château de Moulins, valet de chambre de Louise de Savoie, dirige ensuite les travaux jusqu'à sa mort en 1535. Il est remplacé par acte du 21 avril 1543 par un conducteur particulier, Salomon des Herbaines, tapissier du roi, garde des meubles et tapisseries, qui présente l'avantage de résider sur place et travaille en collaboration avec Pierre des Hôtels, notaire, secrétaire et valet de chambre du roi ; il décède en 1558.
+Les noms des architectes du château sont, quant à eux, plus hypothétiques : Sebastiano Serlio, pour sa part, se voyait offrir le 27 décembre 1541 l'assurance de 400 livres par an pour « son état de peintre et d'architecteur au fait de ses édifices et bastiments au dit lieu de Fontainebleau ». Il apparaît néanmoins que son apport au sein de l'édifice reste limité. Gilles Jamin, architecte et maître d'œuvre du château de Fontainebleau, ainsi que son fils Gracieux Jamin et François Jamin son petit-fils. D'autres noms ont été avancés pour identifier l'architecte qui officia sous le règne de François Ier. Si Gilles Le Breton a effectivement travaillé sur le projet du château, il n'en est pas le créateur. Le Rosso ou Girolamo della Robbia qui a proposé des décors pour la porte Dorée, peuvent eux aussi figurer parmi les architectes potentiels. Les constructions successives du règne de François Ier, notamment pour la cour du Cheval blanc, sont mieux connues depuis des recherches récentes : les trois ailes, nord, ouest et sud, de la susdite cour furent construites en 1540-1542, tandis que l'aile est datée de 1538-1539 pour sa moitié sud (pavillon des Poêles) et postérieure à 1545 pour sa moitié nord (chapelle de la Trinité et pavillon des Armes). L'aile sud fut également surélevée d'un étage, vers 1545-1546, abritant la célèbre galerie d'Ulysse.
+Le roi souhaite faire de Fontainebleau un foyer de l'art de la Renaissance : il collectionne les objets d'art, commande des œuvres sur la mythologie, fait venir d'Italie des antiques. Il reçoit des tableaux de la part du pape, collectionne des œuvres de maîtres italiens (La Joconde et La Vierge aux rochers de Léonard de Vinci, la Sainte-Famille, Saint-Michel, et la Belle Jardinière de Raphaël) et fait venir des moules de statues romaines (Laocoon, Apollon du Belvédère…) afin de couler des bronzes[N 6]. Pour la décoration du château, il commet Rosso Fiorentino qui dessine le pavillon de Pomone, le pavillon des Poesles, la galerie Basse (tous détruits) et surtout la galerie François Ier (1534-1540). Giorgio Vasari désigne Fontainebleau comme la « Nouvelle Rome » et son école est renommée dans toute l'Europe de l’Ouest. François Ier constitue dans le château une importante bibliothèque, ancêtre de la bibliothèque nationale. Le château de Fontainebleau reçoit, entre le 4 et le 27 décembre 1536, la visite de Jacques V d'Écosse, futur époux de Madeleine de France. C'est en 1539 que François Ier reçoit à Fontainebleau Charles Quint et lui fait visiter son palais, entre le 24 et le 30 décembre. Ronsard se fera l'écho du faste déployé au château par l'écriture de quelques vers :
+« Quand verrons-nous par tout FontainebleauDe chambre en chambre aller les mascarades… »
+Le fils de François Ier, le roi de France Henri II, complète le château avec une salle de bal et une chapelle, reliées à l'édifice par la célèbre galerie François Ier, qui fait face à l'étang des Carpes. Il nomme Philibert Delorme pour vérifier et visiter le château le 3 avril 1548, date à laquelle la suite des travaux lui est confiée. C'est ainsi qu'une grande partie du château actuel voit le jour, dont la salle de bal. C'est à Fontainebleau que naissent la plupart des enfants de Henri II et de Catherine de Médicis, les futurs rois François II (19 janvier 1544) et Henri III (19 septembre 1551) ainsi qu'Élisabeth de France (2 avril 1545), Claude de France (12 novembre 1547), Louis de France (3 février 1549), François d'Alençon (18 mars 1555) et les jumelles Victoire et Jeanne (24 juin 1556)[N 7].
+Deux jours après la mort d'Henri II en 1559, Catherine de Médicis remercie Philibert Delorme, protégé de Diane de Poitiers, et confie les travaux à Francesco Primaticcio, dit Le Primatice qui devient surintendant des maisons royales le 12 juillet 1559. Le 17 juillet, le contrôleur général des bâtiments de France, Jean Bullant, est remplacé par François Sannat. C'est à cette époque que Nicolò dell'Abbate décore le château. À la mort du Primatice, le 14 septembre 1570, celui-ci est remplacé par Tristan de Rostaing. Jean Bullant finit par revenir à Fontainebleau et est nommé auprès de Rostaing le 3 août 1571 comme architecte conducteur des travaux. À la mort de Jean Bullant en octobre 1578, le chantier est confié par Henri III à Baptiste Androuet du Cerceau.
+Pendant le règne des trois fils d'Henri II (François II, Charles IX et Henri III), le château de Fontainebleau est moins habité, les monarques lui préférant le Louvre, ou encore les demeures du Val de Loire comme Amboise ou Blois. Le château est néanmoins le théâtre d'une assemblée de notables réunis du 21 au 31 août 1560 pour résoudre les questions religieuses qui troublent le royaume et aboutissant à la convocation des États Généraux. Le 31 janvier 1564, Charles IX et Catherine de Médicis reçoivent les ambassadeurs du pape, de l'empereur et du roi d'Espagne en vue d'une négociation afin que la France revienne sur l'édit de pacification d'Amboise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Château_de_Fontainebleau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Fontainebleau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le règne des Bourbons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus tard, Henri IV agrandit la demeure de plusieurs ailes et de la porte du Baptistère : il dépense entre 1593 et 1609 près de deux millions et demi de livres pour les travaux. Il fait aménager la cour des Offices et redresser la cour Ovale alors assez irrégulière. Désormais, le palais peut accueillir près de mille personnes. Le roi vient jouer à la paume dans une salle spécialement aménagée. À cette époque, une nouvelle génération d'artistes, français et flamands, décore l'intérieur du château (Martin Fréminet, Jean de Hoey, Ambroise Dubois…). C'est la seconde école de Fontainebleau, rassemblant des artistes issus plutôt de milieux parisiens. Le château accueille entre le 14 et le 21 décembre 1599 la visite de Charles-Emmanuel de Savoie.
+C'est à Fontainebleau que se marient Concino Concini et Léonora Dori, dite Galigaï le 27 juin 1601 dans la chapelle du roi, et que naît le futur Louis XIII, le 27 septembre 1601, qui est baptisé le 14 septembre 1606 en même temps que ses deux sœurs, Élisabeth et Chrétienne. Le 14 juin 1602, a lieu au château l'arrestation du maréchal de Biron et du comte d'Auvergne, convaincus de trahison. Le 22 novembre de la même année, naît au château Élisabeth de France, fille d'Henri IV puis le 24 avril 1608, son fils Gaston d'Orléans, événement fêté par une série de spectacles donnés en l'honneur de la reine Marie de Médicis. On y joue notamment une partie de la tragédie Bradamante de Robert Garnier. La même année, l'ambassadeur d'Espagne don Pedro de Tolède est reçu à Fontainebleau. Le 7 juillet 1609, le château est le théâtre du mariage de César de Vendôme[N 9] et d'Henriette de Lorraine.
+Louis XIII, qui hérite en 1610 un château encore en chantier, fait achever les travaux sans apporter de modification majeure. C'est là que le cardinal Barberini, neveu du pape Urbain VIII, est reçu par Louis XIII au château pendant l'été 1625 ; que le maréchal d'Ornano est arrêté le 4 mai 1626. Le 30 mai 1631, Louis XIII et le prince électeur de Bavière Maximilien Ier signent à Fontainebleau une alliance secrète. Le 14 et le 15 mai 1633 a lieu la promotion, au château, de 49 chevaliers de l'ordre du Saint-Esprit. Le 25 septembre 1645 est signé à Fontainebleau le contrat de mariage entre Ladislas IV de Pologne et Marie-Louise de Gonzague-Nevers. Un an plus tard, du 19 au 23 août 1646 a lieu la réception d'Henriette Marie de France, reine d'Angleterre, et de son fils, le futur Charles II d'Angleterre. La reine Christine de Suède y demeure une première fois du 4 au 6 septembre 1656 ; durant son second séjour, du 10 octobre 1657 au 23 février 1658, elle fait assassiner à l'épée et au poignard son écuyer et favori Giovanni Monaldeschi le 10 novembre 1657 pour trahison, ce qui provoque un scandale d'autant plus grand que, portant une cotte de mailles sous son habit, Monaldeschi voit son martyre prolongé,[N 10].
+Louis XIV, bien que préférant les demeures situées à l'ouest de Paris et accordant toutes ses attentions au château de Versailles, aime venir à Fontainebleau. Durant son règne, Fontainebleau est considéré comme une demeure du passé, mais reste un symbole de l'héritage des rois de France, et son entretien s'inscrit donc dans la continuité de la monarchie. C'est pourquoi les modifications architecturales restent limitées, mais on observe une profonde rénovation des jardins : entre 1645 et 1646, Anne d'Autriche fait redessiner le jardin de Diane par André Le Nôtre, lequel, avec Louis Le Vau, modifie le Parterre en installant notamment au centre une fontaine de rocaille. Elle fait également décorer ses appartements avec quatorze paysages historiés peints par Henri Mauperché. Il est possible qu'une partie de ces tableaux se trouve aujourd'hui à la Galerie Nationale de Sofia, en particulier Le Christ à la Samaritaine et le Christ et les pèlerins d'Emmaüs.
+C'est en 1661-1662 que Le Nôtre crée le bassin des Cascades. Le roi fait néanmoins construire un théâtre, vient au château presque chaque année : c'est à Fontainebleau que naît le Grand Dauphin le 1er novembre 1661, que débute le 25 juin 1664 le procès du surintendant Nicolas Fouquet à la chancellerie, qu'a lieu l'audience du cardinal Flavio Chigi, légat du pape Alexandre VII le 29 juillet 1664, qu'est célébré, le 31 août 1679, le mariage de la nièce du roi Marie Louise d'Orléans et de Charles II d'Espagne, qu'est signé le traité entre la France et la Suède puis celui entre le Danemark et le duc de Holstein-Gottorp le 2 septembre 1679, et en 1698. Louis XIV y signe le 18 octobre 1685 l'édit révoquant celui de Nantes et interdisant ainsi le protestantisme en France.
+Le compositeur Jean-Baptiste Lully suit à plusieurs reprises la Cour à Fontainebleau, la première fois en 1661 pour monter le Ballet des Saisons, une autre en 1670 où il donne une représentation dans l'aile de la Cheminée, une troisième le 9 septembre 1677 pour diriger un Te Deum dans la chapelle de la Trinité pour le baptême de son fils aîné, Louis, et une dernière le 20 octobre 1685. En 1679-1680, François d'Orbay fait construire des hôtels pour les secrétaires d'État (bâtiments de la cour des Mathurins et au coin de la grotte des Pins). En 1701, Hardouin-Mansart double l'aile de la galerie des Cerfs, le long du mur est, par un bâtiment en moellons en enduit et briques.
+Le 9 novembre 1685, meurt à Fontainebleau Louis Armand de Bourbon, prince de Conti. Le Grand Condé s'éteint à son tour dans le château le 11 décembre 1686. Du 11 au 18 octobre 1690 a lieu au château le premier séjour de l'ancien roi d'Angleterre Jacques II et de sa femme Marie de Modène. Ceux-ci reviendront chaque année au château jusqu'en 1700. Le 5 novembre 1696, le château est le théâtre de la réception de Marie-Adélaïde de Savoie, future duchesse de Bourgogne et mère de Louis XV. Saint-Simon décrira notamment la scène : « Toute la cour était sur le Fer-à-Cheval, qui faisait un très beau spectacle avec la foule qui était en bas. Le roi menait la princesse qui semblait sortir de sa poche et la conduisit fort lentement à la tribune [de la Chapelle] un moment, puis au grand appartement de la reine mère qui lui était destiné, […] ».
+Le 13 octobre 1698, le château de Fontainebleau reçoit le mariage par procuration de Léopold, duc de Lorraine, et d'Élisabeth Charlotte d'Orléans. Saint-Simon affirme que la décision d'accepter pour le duc d'Anjou la couronne d'Espagne a été prise lors d'un conseil tenu le 10 novembre 1700 dans les appartements de Mme de Maintenon. Vers la fin du règne de Louis XIV, Fontainebleau reçoit la visite entre le 21 et le 24 août 1712 de Henry St John, 1er vicomte Bolingbroke, mandaté par Anne Stuart pour négocier la paix après la guerre de Succession d'Espagne, et la visite le 26 septembre 1714 de Frédéric-Auguste, prince-électeur de Saxe et roi de Pologne, sous le nom de comte de Lusace. La Régence est marquée par la visite à Fontainebleau, du tsar de Russie Pierre le Grand le 30 et 31 mai 1717.
+Louis XV, qui s'y marie le 5 septembre 1725, fait aménager une salle de spectacles, qui brûlera en 1856, et reconstruire une galerie ainsi que le pavillon des Poêles par Ange-Jacques Gabriel, et Louis XVI ne séjournent pas souvent au château, mais restent plus ou moins fidèles à la tradition d'un séjour annuel, faisant de Fontainebleau une sorte de « palais d'automne ».
+Le 27 octobre 1743, Fontainebleau est le théâtre de la signature d'un traité d'alliance secret entre la France et l'Espagne. Le 18 octobre 1752 a lieu au château la première représentation du Devin du Village de Jean-Jacques Rousseau. Le 3 novembre 1762 y est signé le traité de Fontainebleau, traité secret entre la France et l'Espagne au sujet des possessions de la Louisiane. Le dauphin Louis, fils de Louis XV, meurt de la tuberculose au château le 20 décembre 1765. Le roi Christian VII de Danemark y séjourne du 24 au 27 octobre 1768, puis du 2 au 5 novembre, et y voit jouer Tancrède de Voltaire. Le 12 mai 1771, a lieu à Fontainebleau la réception de Marie-Joséphine de Savoie, future comtesse de Provence, puis celle, le 14 novembre 1773, de Marie-Thérèse de Savoie, future comtesse d'Artois[N 11].
+Le règne de Louis XVI est marqué par la ratification à Fontainebleau de deux traités : d'une part le traité de Fontainebleau signé en 1785 entre l'Autriche et les Pays-Bas à la suite de (la guerre de la Marmite), et d'autre part un traité de commerce entre la France et l'Angleterre, le 10 novembre 1786.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Château_de_Fontainebleau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Fontainebleau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Époque contemporaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la Révolution française, le palais est vidé de son mobilier. En janvier 1789, le feu prend dans l'Orangerie, l'incendie s'étant propagé et ayant endommagé la chapelle, réduit en cendres l'appartement du Dauphin (dans l'aile précédemment connue sous le nom de Galerie de François Ier). Il est occupé par l'École Centrale de Seine-et-Marne, puis devient, du 28 janvier 1803 au 30 juin 1808, la caserne de l'École spéciale militaire qui sera transférée à Saint-Cyr-l'École et enfin une prison.
+Napoléon Ier fait revivre Fontainebleau à partir de 1804, il le fait meubler, y tient sa cour pour laquelle il fait aménager 40 appartements de maître. Deux soirs par semaine, il fait donner des spectacles d'opéra et de théâtre. Fontainebleau est aussi un lieu de décision politique, comme le montrent la salle du trône et la bibliothèque de travail de l'empereur, qui y fait transférer secrètement le pape Pie VII (prisonnier de l'Empereur à Savone), le 20 juin 1812[N 12], qui y resta enfermé pendant dix-neuf mois et y signera sous pression le concordat de Fontainebleau, le 25 janvier 1813. Le pape quittera Fontainebleau le 23 janvier 1814.
+Le 23 mai 1808, le château accueille la visite de Charles IV d'Espagne et de la reine Marie-Louise. L'année 1807 est marquée par trois événements : le traité fixant les frontières entre l'Autriche et le royaume d'Italie le 10 octobre, un traité d'alliance franco-danois le 15 octobre, et un traité secret entre la France et l'Espagne concernant le Portugal le 27 octobre.
+Implanté en 1807 entre l'étang des Carpes et la forêt, le manège de Sénarmont est le principal édifice élevé à la demande de Napoléon 1er dans l'enceinte du palais de Fontainebleau. Il est construit selon des dispositions architecturales ambitieuses, avec une charpente à la Philibert Delorme qui a permis la couverture d'un volume de dimensions exceptionnelles pour l'époque, rappelant le 2e projet de 1785 d'Étienne-Louis Boullée pour la Bibliothèque du Roi.
+Le futur Napoléon III est baptisé au château le 4 novembre 1810, avec 24 autres enfants de dignitaires et généraux.
+Napoléon passe les derniers jours de son règne dans le château avant d’abdiquer le 4 avril 1814 sous la pression de ses maréchaux Ney, Berthier, et Lefebvre[N 13] (le traité de Fontainebleau, qui formalise son abdication sans condition, est signé à Paris le 11 avril 1814). Le 20 avril, après avoir vainement tenté de se suicider, il prononce un discours resté fameux à sa garde dans la cour dite depuis « cour des Adieux », scène illustrée par le tableau Les Adieux de Fontainebleau peint par Horace Vernet. Il dit notamment à sa Vieille Garde : « Continuez à servir la France, son bonheur était mon unique pensée ! » et les remercie : « depuis vingt ans […] vous vous êtes toujours conduits avec bravoure et fidélité ! » Napoléon se souviendra d'ailleurs du château de Fontainebleau lors de son séjour à Sainte-Hélène : « Voilà, disait-il, la vraie demeure des rois, la maison des siècles ; peut-être n’était-ce pas rigoureusement un palais d’architecte, mais bien assurément un lieu d’habitation bien calculé et parfaitement convenable. C’était ce qu’il y avait sans doute de plus commode, de plus heureusement situé en Europe […] ». Pendant les Cent-Jours, Napoléon y fera un arrêt le 20 mars 1815[N 14].
+À la suite de Napoléon, les derniers monarques français y feront plusieurs séjours : le 15 juin 1816, Marie-Caroline de Bourbon-Sicile, duchesse de Berry, est reçue au château. Louis XVIII et Charles X y ont dormi.
+Sous la monarchie de Juillet, Louis-Philippe entreprend les premiers travaux de restauration (dirigés par Jean Alaux, Picot, et Abel de Pujol) et fait redécorer et remeubler l'intérieur, avant que le château ne serve de cadre au mariage de Ferdinand-Philippe d'Orléans avec Hélène de Mecklembourg-Schwerin le 30 mai 1837. Du 20 au 21 novembre 1840, le château est visité par l'ancienne reine d'Espagne Marie-Christine. Le 16 avril 1846, un garde de la forêt, Pierre Lecomte, tente d'assassiner Louis-Philippe dans le parc du château. Le palais reçoit la visite du bey de Tunis, Ahmed Ier Bey, les 15 et 16 décembre 1846.
+C'est en 1848 qu'Abel Blouet devient architecte du château et entreprend de nouvelles restaurations (galerie François Ier, ailes de la cour du Cheval blanc…). À sa mort en 1853, il est remplacé par Hector Lefuel puis Alexis Paccard en 1855. Le château fait l’objet d'un classement au titre des monuments historiques par la liste de 1862. En 1867, Prosper Desbuisson devient architecte du palais et poursuit les restaurations engagées par ses prédécesseurs.
+Sous le Second Empire, Fontainebleau fait partie, avec Saint-Cloud, Compiègne et Biarritz, des lieux de villégiature de la cour. L'impératrice Eugénie, épouse de Napoléon III, passe ses soirées dans le petit théâtre construit par son mari. Elle s'attache au salon chinois, agrémenté par des objets provenant du sac du palais d'Été et par les cadeaux des ambassadeurs du Siam, reçus au château le 27 juin 1861. Ils avaient été précédés par le roi de Prusse, futur empereur allemand, Guillaume Ier (15 et 16 décembre 1856) et par Maximilien II de Bavière (17 au 24 mai 1857). Lors de la guerre de 1870, le château est investi par les Prussiens (17 septembre 1870) ; Frédéric Charles de Prusse et son état-major l'occupent du 6 au 18 mars 1871 ; il est finalement évacué cinq jours plus tard.
+En novembre 1871, les dépendances du château sont confiées à l'École d'application de l'artillerie et du génie, après que celle-ci a quitté Metz. Les débuts de la Troisième République sont marqués par la réception d'invités de marque par les présidents de la République : Alexandre Ier de Serbie le 17 août 1891 et Georges Ier de Grèce le 9 septembre 1892 par Sadi Carnot, Léopold II de Belgique, roi des Belges, le 21 septembre 1895 par Félix Faure, et Alphonse XIII d'Espagne le 8 mai 1913 par Raymond Poincaré. Le château devient la demeure occasionnelle de quelques présidents de la Troisième République.
+Les protections se poursuivent : les façades et combles des extérieurs des bâtiments qui encadrent la cour Henri IV et la cour des Princes, ainsi que les façades et combles du Pavillon Sully, font l’objet d’un classement au titre des monuments historiques depuis le 20 août 1913.
+Plusieurs événements importants auront lieu à Fontainebleau au cours du XXe siècle. Après une visite le 10 juillet 1914 de l'ancienne impératrice Eugénie, le 26 juin 1921 a lieu à Fontainebleau l'inauguration du Conservatoire américain avant celle de l'École des beaux-arts américains le 25 juin 1923. Dès 1927 (date à laquelle le château est consacré musée national) et ce jusque dans les années 1930, les parties hautes de l'aile de la Belle Cheminée (incendiée en 1856) sont reconstruites grâce aux fonds Rockefeller. Le manège de Sénarmont est classé au titre des monuments historiques par arrêté du 10 octobre 1930.
+Pendant la Seconde Guerre mondiale, l'armée allemande commandée par le général Richard Ruoff investit Fontainebleau le 16 juin 1940 et l'occupe jusqu'au 10 novembre, puis du 15 mai à fin octobre 1941. Après guerre, le château reçoit du 6 au 10 septembre 1946 une conférence franco-vietnamienne sous la présidence de Max André et Phạm Văn Đồng et le 5 octobre 1948 est créée au château l'Union internationale pour la protection de la nature.
+En janvier 1949, une partie du château (notamment la cour des Offices) est investie par le commandement en chef des forces alliées Centre-Europe (OTAN) et y restera jusqu'en juillet 1966. Une restauration générale du château est permise par la loi-programme des années 1964-1968 dont André Malraux est l'initiateur. Le domaine de Fontainebleau est classé au patrimoine mondial de l'UNESCO en 1981. Les 25 et 26 juin 1984 se réunit à Fontainebleau le Conseil des chefs d'État et de gouvernement de la Communauté économique européenne, présidé par François Mitterrand.
+C'est en 1986 qu'est inauguré dans l'aile Louis XV, le musée Napoléon Ier. Les bâtiments de la cour des Offices (en restauration) ont été récemment affectés au Centre européen de musique de chambre. Le ministère de la Culture et de la Communication a par ailleurs acquis en 2006 les anciennes écuries royales et y entreprend des restaurations.
+Le domaine national de Fontainebleau dans sa totalité, incluant les parties bâties et non bâties non encore protégées, fait l’objet d'un classement au titre des monuments historiques par arrêté du 10 octobre 2008,[N 15].
+En 2011, des visites thématiques et des expositions se tiennent au château dans le cadre du festival de l'histoire de l'art.
+À l'occasion du bicentenaire de la mort de Napoléon Ier en 2021, une grande exposition, intitulée Un palais pour l'Empereur. Napoléon Ier à Fontainebleau, est organisée au château. À cette occasion, plus de 200 œuvres issues des collections bellifontaines et de musées français ou étrangers ont été prêtées au château.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Château_de_Fontainebleau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Fontainebleau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Architecture et intérieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Éléments médiévaux
-Du château féodal ne restent que le donjon et des traces de courtines. Les deux tours qui défendaient la porte ainsi que les bâtiments en masure qui formaient le carré[7] ont disparu. Le donjon, comprenant dès le XVIe siècle une partie des appartements royaux, se présente comme une grosse tour carrée sans contreforts, coiffée en pavillon et supportant deux grandes cheminées latérales[44].
-À l'origine, la maçonnerie extérieure était faite de moellons avec un appareil de pierre de taille aux chaînages d'angle et aux encadrements des baies. Le toit était recouvert de tuiles. Dans le mur nord subsiste un escalier droit voûté en berceau qui se retournait dans le mur est pour mener au deuxième étage. Les traces de courtines du XIIe siècle subsistent au rez-de-chaussée du corps de logis. On retrouve également des traces des bâtiments du XVe siècle au rez-de-chaussée des façades de la cour Ovale, où sont visibles des parties en pierres de taille[45].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éléments médiévaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du château féodal ne restent que le donjon et des traces de courtines. Les deux tours qui défendaient la porte ainsi que les bâtiments en masure qui formaient le carré ont disparu. Le donjon, comprenant dès le XVIe siècle une partie des appartements royaux, se présente comme une grosse tour carrée sans contreforts, coiffée en pavillon et supportant deux grandes cheminées latérales.
+À l'origine, la maçonnerie extérieure était faite de moellons avec un appareil de pierre de taille aux chaînages d'angle et aux encadrements des baies. Le toit était recouvert de tuiles. Dans le mur nord subsiste un escalier droit voûté en berceau qui se retournait dans le mur est pour mener au deuxième étage. Les traces de courtines du XIIe siècle subsistent au rez-de-chaussée du corps de logis. On retrouve également des traces des bâtiments du XVe siècle au rez-de-chaussée des façades de la cour Ovale, où sont visibles des parties en pierres de taille.
 Ainsi, toutes les traces médiévales n'ont pas été détruites et un devis de 1528 précisait même à l'architecte de « servir les vieils murs quand cela était possible », d'où la conservation de traces du bâtiment du XVe siècle dans la cour Ovale.
-Bâtiments du XVIe siècle
-Aile de l'escalier du Fer-à-cheval
-Pavillon des Armes et galerie des Chevreuils (détruite)
-Ce pavillon devait à l'origine contenir l'armurerie du roi. Il présente dans son architecture un système mixte de pierres de taille et de moellons. Ambroise Perret y pose les boiseries sculptées en 1559. Le deuxième étage fut refait au XVIIIe siècle[46].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Château_de_Fontainebleau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Fontainebleau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Architecture et intérieur</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bâtiments du XVIe siècle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Aile de l'escalier du Fer-à-cheval</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pavillon des Armes et galerie des Chevreuils (détruite)
+Ce pavillon devait à l'origine contenir l'armurerie du roi. Il présente dans son architecture un système mixte de pierres de taille et de moellons. Ambroise Perret y pose les boiseries sculptées en 1559. Le deuxième étage fut refait au XVIIIe siècle.
 Le pavillon des Armes se situait à l'extrémité de la galerie des Chevreuils, détruite en 1833. Celle-ci fut décorée (comme la galerie des Cerfs) par Louis Poisson de 1601 à 1608, de peintures sur plâtre et de lambris de bois en partie basse des murs. Les peintures constituaient une série de sept grandes scènes de chasse (chasse au loup, au sanglier, au cerf, au renard, au faucon, etc.), alternant avec des décors d'architectures feintes composées de niches dans lesquelles prenaient place des vases, portant un lys au naturel, surmontés de têtes de chevreuils, encadrés par des colonnes corinthiennes. Les décors de cette galerie nous sont connus aujourd'hui grâce à un dessin de Charles Percier représentant une vue extérieure de la galerie, et surtout des relevés de Antoine-Laurent Castellan, exécutés en 1833, peu avant la destruction du bâtiment.
 Chapelle de la Trinité
-Ancienne église conventuelle des religieux Trinitaires installés ici par saint Louis en 1259, celle-ci a été rattachée au château sous François Ier[47]. Reconstruite à partir de ce règne et sous celui d’Henri II, elle reçoit la voûte actuelle sous Henri IV et fut terminée par Louis XIII puis enrichie par Louis XIV, Louis XV et Louis XVI[10].
+Ancienne église conventuelle des religieux Trinitaires installés ici par saint Louis en 1259, celle-ci a été rattachée au château sous François Ier. Reconstruite à partir de ce règne et sous celui d’Henri II, elle reçoit la voûte actuelle sous Henri IV et fut terminée par Louis XIII puis enrichie par Louis XIV, Louis XV et Louis XVI.
 On doit au peintre Martin Fréminet des scènes du mystère de la Rédemption de l'homme (les Trinitaires étant un ordre rédempteur) : L'Apparition de Dieu à Noé au-dessus de la tribune, L'Annonciation derrière le maître-autel, Le Christ du Jugement dernier entouré des sept premières intelligences au centre, ainsi que des personnages de l'ancienne Loi (rois de Juda, prophètes, vertus), peints sur la voûte entre 1608 et 1619.
-Le maître-autel, réalisé par le sculpteur italien Francesco Bordoni en 1633, lequel est aussi l'auteur du dallage en marbre multicolore du sol, est entouré de statues de souverains (saint Louis à droite de l'autel avec les traits de Louis XIII, et Charlemagne à gauche avec les traits de Henri IV). L’autel et le tabernacle d’origine se trouvent à l’église paroissiale de Fontainebleau où ils furent transférés à la Révolution[10].
+Le maître-autel, réalisé par le sculpteur italien Francesco Bordoni en 1633, lequel est aussi l'auteur du dallage en marbre multicolore du sol, est entouré de statues de souverains (saint Louis à droite de l'autel avec les traits de Louis XIII, et Charlemagne à gauche avec les traits de Henri IV). L’autel et le tabernacle d’origine se trouvent à l’église paroissiale de Fontainebleau où ils furent transférés à la Révolution.
 Le tableau d'autel a quant à lui été peint par Jean Dubois le Vieux en 1642 et représente la Sainte Trinité au moment de la déposition de croix. La tribune, portée par des colonnes de marbre, est l'œuvre de Francesco Scibec de Carpi, tout comme la clôture du chœur datant de 1554. Philibert Delorme avait présidé à la création de deux oratoires : l'un pour Henri II réalisé en 1557, l'autre pour Diane de Poitiers. Les deux furent détruits en 1605. Les boiseries et les grilles des chapelles sont l'œuvre du menuisier Jean Maujan, qui sous-traite avec Robert Andry en 1629. Barthélémy du Tremblay quant à lui avait commencé les peintures décoratives, terminées par son gendre Germain Gissey, associé à Jean Bertrand et Robert Cammel. Les dernières peintures décoratives exécutées dans la chapelle sont les tableaux ovales réalisés sous Louis XVI.
 L'orgue de François-Henry Clicquot, toujours en place, fut réalisé en 1774.
-Le principal événement qui eut lieu dans cette chapelle fut le mariage de Louis XV et Marie Leszczyńska en 1725 (le Supérieur des Trinitaires, Louis Blouin, premier valet de Louis XIV, présenta l’eau bénite au roi et à la reine[10]).
+Le principal événement qui eut lieu dans cette chapelle fut le mariage de Louis XV et Marie Leszczyńska en 1725 (le Supérieur des Trinitaires, Louis Blouin, premier valet de Louis XIV, présenta l’eau bénite au roi et à la reine).
 La chapelle fut aussi le théâtre du mariage de Marie-Louise d'Orléans avec Charles II d'Espagne (représenté par le prince de Conti) et du baptême du prince Louis-Napoléon Bonaparte (futur Napoléon III) en 1810 avec 24 autres enfants et du mariage de Ferdinand-Philippe d'Orléans avec Hélène de Mecklembourg-Schwerin le 30 mai 1837.
 Vestibule du Fer-à-cheval
-Le vestibule du Fer-à-cheval ou « vestibule de la chapelle », situé au premier étage, présente un mobilier réalisé sous le Second Empire et copiant l'ornementation des encadrements des trois portes en bois sculpté, qui datent en partie du XVIIe siècle et desservent les différentes parties du château. Les vantaux en bois sculptés ont été réalisés par Jean Gobert en 1639, tandis que le reste du décor de la pièce est dû à Jean-Baptiste-Louis Plantar (1833)[48]. L'encadrement et la porte de la chapelle sont ornés de motifs religieux (anges, couronnes d'épines), la porte de la terrasse est décorée de trophées d'armes, de têtes de lions et de masques, et celle de la galerie François Ier de motifs militaires et de têtes d'Hercule.
+Le vestibule du Fer-à-cheval ou « vestibule de la chapelle », situé au premier étage, présente un mobilier réalisé sous le Second Empire et copiant l'ornementation des encadrements des trois portes en bois sculpté, qui datent en partie du XVIIe siècle et desservent les différentes parties du château. Les vantaux en bois sculptés ont été réalisés par Jean Gobert en 1639, tandis que le reste du décor de la pièce est dû à Jean-Baptiste-Louis Plantar (1833). L'encadrement et la porte de la chapelle sont ornés de motifs religieux (anges, couronnes d'épines), la porte de la terrasse est décorée de trophées d'armes, de têtes de lions et de masques, et celle de la galerie François Ier de motifs militaires et de têtes d'Hercule.
 Appartements des Reines-mères et du Pape
 L'aile des Reines-mères abrite les appartements des Reines-mères et du Pape. Elle a été édifiée entre 1558 et 1566.
-Ces appartements, aménagés au XVIe siècle puis refaits au XVIIIe siècle après la reconstruction du pavillon d'angle, doivent leur nom au séjour de Catherine de Médicis, de Marie de Médicis, d'Anne d'Autriche et du pape Pie VII (qui y dormit en 1804, 1812 et 1814). Les appartements sont divisés en deux : les appartements dits « Louis XIII », habités par le Grand Dauphin puis Jacques II d'Angleterre, et ceux dits (Louis XV), habités notamment au XVIIIe siècle par les tantes de Louis XVI, et par le comte de Provence (futur Louis XVIII) et son épouse à partir de 1770. La décoration et l'ameublement furent revus notamment sous le Second Empire, mais le décor de boiseries des trois salles les plus importantes a été renouvelé dès 1644. L'équipe de menuisiers se composait de François Moriceau, Guillaume Noyers, Pierre Dionis, Louis Torchebat, Jean Langlacé et Jean Adnet, et les peintres et doreurs étaient Henri Champagne et Claude d'Hoey, tous sous la direction de l'architecte Jacques Le Mercier[49].
+Ces appartements, aménagés au XVIe siècle puis refaits au XVIIIe siècle après la reconstruction du pavillon d'angle, doivent leur nom au séjour de Catherine de Médicis, de Marie de Médicis, d'Anne d'Autriche et du pape Pie VII (qui y dormit en 1804, 1812 et 1814). Les appartements sont divisés en deux : les appartements dits « Louis XIII », habités par le Grand Dauphin puis Jacques II d'Angleterre, et ceux dits (Louis XV), habités notamment au XVIIIe siècle par les tantes de Louis XVI, et par le comte de Provence (futur Louis XVIII) et son épouse à partir de 1770. La décoration et l'ameublement furent revus notamment sous le Second Empire, mais le décor de boiseries des trois salles les plus importantes a été renouvelé dès 1644. L'équipe de menuisiers se composait de François Moriceau, Guillaume Noyers, Pierre Dionis, Louis Torchebat, Jean Langlacé et Jean Adnet, et les peintres et doreurs étaient Henri Champagne et Claude d'Hoey, tous sous la direction de l'architecte Jacques Le Mercier.
 Antichambre obscure
 Cette petite pièce faisait office de salle d'attente. Elle possède un mobilier tendu de velours vert, datant du Second Empire.
 Salon des huissiers
@@ -629,7 +794,7 @@
 Second cabinet de toilette
 Cette pièce, toute en longueur, comporte des boiseries redessinées par Jacques-Ange Gabriel pour les filles de Louis XV. Au centre de la pièce figure un portrait de Pie VII par Jacques-Louis David, réalisé en 1805.
 Chambre à coucher d'apparat
-Cette ancienne chambre d'Anne d'Autriche possède un plafond et des lambris peints de grotesques polychromes par Charles Errard. Sur les dessus-de-porte figurent le portrait d'Anne d'Autriche en Minerve et celui de Marie-Thérèse d'Espagne en l'Abondance[50], tous deux réalisés par Gilbert de Sève vers 1660. Aux murs, deux tapisseries des Gobelins de la série du Triomphe des Dieux : Le Triomphe de Mars et Le Triomphe de la Religion, sur des cartons de Noël Coypel d'après Jules Romain. Le mobilier se compose d'un ensemble en noyer sculpté : un lit à colonnes, deux tables de nuit, deux commodes, une console, un canapé, six fauteuils, six chaises, deux tabourets de pieds, livrés en 1860 par la maison Fourdinois. Le guéridon (œuvre du marbrier italien Pietro Martinori) au centre de la salle, fut offert par Pie IX au prince impérial, son filleul, et fut présenté à l'Exposition universelle de 1867. Le plateau circulaire est recouvert d'une mosaïque de marbres retrouvés sur le mont Palatin. Au centre de la composition figurent les armes du pape.
+Cette ancienne chambre d'Anne d'Autriche possède un plafond et des lambris peints de grotesques polychromes par Charles Errard. Sur les dessus-de-porte figurent le portrait d'Anne d'Autriche en Minerve et celui de Marie-Thérèse d'Espagne en l'Abondance, tous deux réalisés par Gilbert de Sève vers 1660. Aux murs, deux tapisseries des Gobelins de la série du Triomphe des Dieux : Le Triomphe de Mars et Le Triomphe de la Religion, sur des cartons de Noël Coypel d'après Jules Romain. Le mobilier se compose d'un ensemble en noyer sculpté : un lit à colonnes, deux tables de nuit, deux commodes, une console, un canapé, six fauteuils, six chaises, deux tabourets de pieds, livrés en 1860 par la maison Fourdinois. Le guéridon (œuvre du marbrier italien Pietro Martinori) au centre de la salle, fut offert par Pie IX au prince impérial, son filleul, et fut présenté à l'Exposition universelle de 1867. Le plateau circulaire est recouvert d'une mosaïque de marbres retrouvés sur le mont Palatin. Au centre de la composition figurent les armes du pape.
 Le Gros salon
 Ce salon de réception, ancienne antichambre d'Anne d'Autriche, est décoré d'un plafond sculpté qui était situé auparavant dans la chambre de Henri II, mais dont le décor fut déménagé par Anne d'Autriche et remonté par André Gobert en 1659 et enrichi de dorures par Jean Dubois en 1662. Ambroise Perret l'avait décoré des figures du soleil et des planètes en 1558. Il se compose de neuf compartiments dont sept sont ornés d'allégories célestes. Le plafond possède également les armes d'Anne d'Autriche. Les murs sont ornés de tapisseries des Gobelins illustrant la vie d'Alexandre le Grand d'après des cartons de Charles Le Brun. Le mobilier se compose notamment de deux grandes consoles en bois doré à figures égyptiennes, réalisées en 1787 par le menuisier Trompette et le sculpteur Butteaux. Le vase en porcelaine de Sèvres, dit « de Socibius », sur la console, date de 1824 et fut réalisé d'après un antique. Son décor se rapporte aux arts et aux sciences.
 Second salon des officiers
